--- a/Bugs_Status.xlsx
+++ b/Bugs_Status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>S.No</t>
   </si>
@@ -200,7 +200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -768,7 +768,12 @@
       <c r="G6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="H6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="75">
       <c r="A7" s="6">

--- a/Bugs_Status.xlsx
+++ b/Bugs_Status.xlsx
@@ -205,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -241,11 +241,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -297,6 +310,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H43" sqref="H1:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -607,7 +632,7 @@
     <col min="5" max="5" width="11.42578125" style="15" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="15" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -636,7 +661,7 @@
       <c r="H1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -662,7 +687,8 @@
       <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="105">
       <c r="A3" s="6">
@@ -686,7 +712,8 @@
       <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="135">
       <c r="A4" s="6">
@@ -713,7 +740,7 @@
       <c r="H4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -742,7 +769,7 @@
       <c r="H5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -771,7 +798,7 @@
       <c r="H6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -797,7 +824,8 @@
       <c r="G7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="135">
       <c r="A8" s="6">
@@ -821,7 +849,8 @@
       <c r="G8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="90">
       <c r="A9" s="6">
@@ -845,7 +874,8 @@
       <c r="G9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6">
@@ -857,7 +887,8 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="14"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6">
@@ -869,7 +900,8 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="14"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2"/>
@@ -879,7 +911,8 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="14"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2"/>
@@ -889,7 +922,8 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="14"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2"/>
@@ -899,7 +933,8 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="14"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2"/>
@@ -909,7 +944,8 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="14"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
@@ -919,7 +955,8 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="14"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
@@ -929,7 +966,8 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="14"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
@@ -939,7 +977,8 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="14"/>
-      <c r="I18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
@@ -949,7 +988,8 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="14"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2"/>
@@ -959,7 +999,8 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="14"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2"/>
@@ -969,7 +1010,8 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="14"/>
-      <c r="I21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2"/>
@@ -979,7 +1021,8 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="14"/>
-      <c r="I22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2"/>
@@ -989,7 +1032,8 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="14"/>
-      <c r="I23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2"/>
@@ -999,7 +1043,8 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="14"/>
-      <c r="I24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2"/>
@@ -1009,7 +1054,8 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="14"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2"/>
@@ -1019,7 +1065,8 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="14"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2"/>
@@ -1029,7 +1076,8 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="14"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2"/>
@@ -1039,7 +1087,8 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="14"/>
-      <c r="I28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2"/>
@@ -1049,7 +1098,8 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="14"/>
-      <c r="I29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2"/>
@@ -1059,7 +1109,8 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="14"/>
-      <c r="I30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2"/>
@@ -1069,7 +1120,8 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="14"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2"/>
@@ -1079,7 +1131,8 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="14"/>
-      <c r="I32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2"/>
@@ -1089,7 +1142,8 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="14"/>
-      <c r="I33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="20"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2"/>
@@ -1099,7 +1153,8 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="14"/>
-      <c r="I34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2"/>
@@ -1109,7 +1164,8 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="14"/>
-      <c r="I35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2"/>
@@ -1119,7 +1175,8 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="14"/>
-      <c r="I36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2"/>
@@ -1129,7 +1186,8 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="14"/>
-      <c r="I37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2"/>
@@ -1139,7 +1197,8 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="14"/>
-      <c r="I38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2"/>
@@ -1149,7 +1208,8 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="14"/>
-      <c r="I39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2"/>
@@ -1159,7 +1219,8 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="14"/>
-      <c r="I40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2"/>
@@ -1169,7 +1230,8 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="14"/>
-      <c r="I41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2"/>
@@ -1179,7 +1241,8 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="14"/>
-      <c r="I42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2"/>
@@ -1189,7 +1252,8 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="14"/>
-      <c r="I43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
